--- a/fin/comp/Classification_Report.xlsx
+++ b/fin/comp/Classification_Report.xlsx
@@ -602,52 +602,52 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>SVM (RBF)</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>0.1153s</t>
+          <t>97.2366s</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>63.3688</t>
+          <t>74.9154</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>59.4667</t>
+          <t>74.6667</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>58.9069</t>
+          <t>74.5427</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>58.9069</t>
+          <t>74.5427</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>44.1423</t>
+          <t>61.2554</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>99.9286</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>59.4667</t>
+          <t>74.6667</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>-58.4667</t>
+          <t>25.2619</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -657,84 +657,84 @@
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>BWimage (0.9833)</t>
+          <t>BWimage (1.0000)</t>
         </is>
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>Satelliteimage (0.8667)</t>
+          <t>Cartoon (0.9667)</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
         <is>
-          <t>SubSea (0.2833)</t>
+          <t>Desert (0.4667)</t>
         </is>
       </c>
       <c r="O2" s="3" t="inlineStr">
         <is>
-          <t>Sculpt (0.1500)</t>
+          <t>Archit (0.4167)</t>
         </is>
       </c>
       <c r="P2" s="3" t="inlineStr">
         <is>
-          <t>Desert (0.0833)</t>
+          <t>Sculpt (0.4000)</t>
         </is>
       </c>
       <c r="Q2" s="3" t="inlineStr">
         <is>
-          <t>0.2167</t>
+          <t>0.1467</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>SVM (RBF)</t>
+          <t>SVM (Linear)</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>6.4888s</t>
+          <t>20.8944s</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>74.9154</t>
+          <t>71.9990</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>74.6667</t>
+          <t>71.5333</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>74.5427</t>
+          <t>71.3914</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>74.5427</t>
+          <t>71.3914</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>61.2554</t>
+          <t>57.5817</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>99.6000</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>74.6667</t>
+          <t>71.5333</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>-73.6667</t>
+          <t>28.0667</t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
@@ -749,253 +749,253 @@
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
-          <t>Cartoon (0.9667)</t>
+          <t>Cropcycle (0.9500)</t>
         </is>
       </c>
       <c r="N3" s="4" t="inlineStr">
         <is>
-          <t>Desert (0.4667)</t>
+          <t>Archit (0.4667)</t>
         </is>
       </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
-          <t>Archit (0.4167)</t>
+          <t>Castle (0.4000)</t>
         </is>
       </c>
       <c r="P3" s="4" t="inlineStr">
         <is>
-          <t>Sculpt (0.4000)</t>
+          <t>Sculpt (0.2833)</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">
         <is>
-          <t>0.1467</t>
+          <t>0.1617</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>SVM (Linear)</t>
+          <t>LDA</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>3.0926s</t>
+          <t>0.1879s</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>71.6791</t>
+          <t>70.0900</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>71.2667</t>
+          <t>69.6000</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>71.1108</t>
+          <t>69.5597</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>71.1108</t>
+          <t>69.5597</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>57.2697</t>
+          <t>55.0699</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>77.7857</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>71.2667</t>
+          <t>69.6000</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>-70.2667</t>
+          <t>8.1857</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>AncestorDinoArt (1.0000)</t>
+          <t>BWimage (1.0000)</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>BWimage (1.0000)</t>
+          <t>AncestorDinoArt (0.9833)</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>Cropcycle (0.9500)</t>
+          <t>Cropcycle (0.9667)</t>
         </is>
       </c>
       <c r="N4" s="3" t="inlineStr">
         <is>
-          <t>Archit (0.4500)</t>
+          <t>Archit (0.4667)</t>
         </is>
       </c>
       <c r="O4" s="3" t="inlineStr">
         <is>
-          <t>Castle (0.4167)</t>
+          <t>Lion (0.4667)</t>
         </is>
       </c>
       <c r="P4" s="3" t="inlineStr">
         <is>
-          <t>Sculpt (0.2667)</t>
+          <t>Sculpt (0.3667)</t>
         </is>
       </c>
       <c r="Q4" s="3" t="inlineStr">
         <is>
-          <t>0.1633</t>
+          <t>0.1454</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>LDA</t>
+          <t>Random Forest (n=200)</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>0.1844s</t>
+          <t>8.3229s</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>70.0900</t>
+          <t>68.3907</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>69.6000</t>
+          <t>68.2333</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>69.5597</t>
+          <t>67.3370</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>69.5597</t>
+          <t>67.3370</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>55.0699</t>
+          <t>52.6267</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>99.9143</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>69.6000</t>
+          <t>68.2333</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>-68.6000</t>
+          <t>31.6810</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
+          <t>AncestorDinoArt (1.0000)</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
           <t>BWimage (1.0000)</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
-        <is>
-          <t>AncestorDinoArt (0.9833)</t>
-        </is>
-      </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
-          <t>Cropcycle (0.9667)</t>
+          <t>Satelliteimage (0.9500)</t>
         </is>
       </c>
       <c r="N5" s="4" t="inlineStr">
         <is>
-          <t>Archit (0.4667)</t>
+          <t>DeerAntelope (0.3000)</t>
         </is>
       </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
-          <t>Lion (0.4667)</t>
+          <t>Archit (0.2333)</t>
         </is>
       </c>
       <c r="P5" s="4" t="inlineStr">
         <is>
-          <t>Sculpt (0.3667)</t>
+          <t>Sculpt (0.2333)</t>
         </is>
       </c>
       <c r="Q5" s="4" t="inlineStr">
         <is>
-          <t>0.1454</t>
+          <t>0.1891</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Random Forest (n=200)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>8.7918s</t>
+          <t>0.2989s</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>68.7691</t>
+          <t>61.0772</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>68.4667</t>
+          <t>58.8667</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>67.5652</t>
+          <t>57.4492</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>67.5652</t>
+          <t>57.4492</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>52.8680</t>
+          <t>42.3663</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>67.1714</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>68.4667</t>
+          <t>58.8667</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>-67.4667</t>
+          <t>8.3048</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
@@ -1005,32 +1005,32 @@
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>BWimage (1.0000)</t>
+          <t>BWimage (0.9667)</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>Satelliteimage (0.9833)</t>
+          <t>Doors (0.9167)</t>
         </is>
       </c>
       <c r="N6" s="3" t="inlineStr">
         <is>
-          <t>DeerAntelope (0.3667)</t>
+          <t>SubSea (0.2000)</t>
         </is>
       </c>
       <c r="O6" s="3" t="inlineStr">
         <is>
-          <t>Sculpt (0.2833)</t>
+          <t>Archit (0.1833)</t>
         </is>
       </c>
       <c r="P6" s="3" t="inlineStr">
         <is>
-          <t>Archit (0.2000)</t>
+          <t>Sculpt (0.0833)</t>
         </is>
       </c>
       <c r="Q6" s="3" t="inlineStr">
         <is>
-          <t>0.1889</t>
+          <t>0.2221</t>
         </is>
       </c>
     </row>
@@ -1126,186 +1126,186 @@
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>SVM (RBF)</t>
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>0.1152501106262207</v>
+        <v>97.23664617538452</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>63.36882657829733</v>
+        <v>74.91538823347388</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>59.46666666666668</v>
+        <v>74.66666666666667</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>58.90689849677169</v>
+        <v>74.5426636981734</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>58.90689849677169</v>
+        <v>74.5426636981734</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>44.14231725203781</v>
+        <v>61.25541077246168</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>1</v>
+        <v>99.92857142857144</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>59.46666666666667</v>
+        <v>74.66666666666667</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-58.46666666666667</v>
+        <v>25.26190476190477</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0.2166779484242301</v>
+        <v>0.1466666666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>SVM (RBF)</t>
+          <t>SVM (Linear)</t>
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>6.488792181015015</v>
+        <v>20.8943738937378</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>74.91538823347388</v>
+        <v>71.99899213806476</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>74.66666666666667</v>
+        <v>71.53333333333333</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>74.5426636981734</v>
+        <v>71.39141659162212</v>
       </c>
       <c r="F3" s="9" t="n">
-        <v>74.5426636981734</v>
+        <v>71.39141659162212</v>
       </c>
       <c r="G3" s="9" t="n">
-        <v>61.25541077246168</v>
+        <v>57.58167099378297</v>
       </c>
       <c r="H3" s="9" t="n">
-        <v>1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I3" s="9" t="n">
-        <v>74.66666666666667</v>
+        <v>71.53333333333333</v>
       </c>
       <c r="J3" s="9" t="n">
-        <v>-73.66666666666667</v>
+        <v>28.06666666666666</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>0.1466666666666666</v>
+        <v>0.1617212966117258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>SVM (Linear)</t>
+          <t>LDA</t>
         </is>
       </c>
       <c r="B4" s="7" t="n">
-        <v>3.092616081237793</v>
+        <v>0.1879098415374755</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>71.679089206838</v>
+        <v>70.09003888668204</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>71.26666666666667</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>71.11079223680524</v>
+        <v>69.55971023804221</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>71.11079223680524</v>
+        <v>69.55971023804221</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>57.26970262679597</v>
+        <v>55.06991583138409</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>1</v>
+        <v>77.78571428571428</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>71.26666666666667</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-70.26666666666667</v>
+        <v>8.185714285714283</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.1633183666612206</v>
+        <v>0.1453944825485326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="inlineStr">
         <is>
-          <t>LDA</t>
+          <t>Random Forest (n=200)</t>
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>0.1844041347503662</v>
+        <v>8.322904825210571</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>70.09003888668204</v>
+        <v>68.39067104524166</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>69.59999999999999</v>
+        <v>68.23333333333333</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>69.55971023804221</v>
+        <v>67.33698342658711</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>69.55971023804221</v>
+        <v>67.33698342658711</v>
       </c>
       <c r="G5" s="9" t="n">
-        <v>55.06991583138409</v>
+        <v>52.62672341445543</v>
       </c>
       <c r="H5" s="9" t="n">
-        <v>1</v>
+        <v>99.91428571428573</v>
       </c>
       <c r="I5" s="9" t="n">
-        <v>69.59999999999999</v>
+        <v>68.23333333333333</v>
       </c>
       <c r="J5" s="9" t="n">
-        <v>-68.59999999999999</v>
+        <v>31.68095238095239</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>0.1453944825485326</v>
+        <v>0.1891034402413428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>Random Forest (n=200)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B6" s="7" t="n">
-        <v>8.791792154312134</v>
+        <v>0.2988870143890381</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>68.76913513172217</v>
+        <v>61.07721225036873</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>68.46666666666665</v>
+        <v>58.86666666666667</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>67.56515683692433</v>
+        <v>57.44917789894918</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>67.56515683692433</v>
+        <v>57.44917789894918</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>52.86803953275768</v>
+        <v>42.36630791266964</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>1</v>
+        <v>67.17142857142858</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>68.46666666666667</v>
+        <v>58.86666666666667</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-67.46666666666667</v>
+        <v>8.304761904761911</v>
       </c>
       <c r="K6" s="7" t="n">
-        <v>0.1889397317194619</v>
+        <v>0.2220970758724912</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1394,7 @@
     <row r="2">
       <c r="A2" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1403,34 +1403,34 @@
         </is>
       </c>
       <c r="C2" s="11" t="n">
-        <v>0.759493670886076</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="D2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.8633093525179856</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="F2" s="11" t="n">
-        <v>0.8633093525179856</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="G2" s="11" t="n">
-        <v>0.759493670886076</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="H2" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J2" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -1439,34 +1439,34 @@
         </is>
       </c>
       <c r="C3" s="12" t="n">
-        <v>0.24</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="D3" s="12" t="n">
-        <v>0.3</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.2666666666666666</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="F3" s="12" t="n">
-        <v>0.2666666666666666</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="G3" s="12" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="H3" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I3" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1475,34 +1475,34 @@
         </is>
       </c>
       <c r="C4" s="11" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0.9833333333333332</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.9365079365079364</v>
+        <v>0.8721804511278195</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>0.9365079365079364</v>
+        <v>0.8721804511278195</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>0.8805970149253731</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="H4" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -1511,34 +1511,34 @@
         </is>
       </c>
       <c r="C5" s="12" t="n">
-        <v>0.5512820512820513</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>0.6231884057971014</v>
+        <v>0.59375</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>0.6231884057971014</v>
+        <v>0.59375</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>0.4526315789473684</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H5" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I5" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -1547,34 +1547,34 @@
         </is>
       </c>
       <c r="C6" s="11" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>0.7424242424242424</v>
+        <v>0.7401574803149606</v>
       </c>
       <c r="F6" s="11" t="n">
-        <v>0.7424242424242424</v>
+        <v>0.7401574803149606</v>
       </c>
       <c r="G6" s="11" t="n">
-        <v>0.5903614457831325</v>
+        <v>0.5875</v>
       </c>
       <c r="H6" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I6" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J6" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B7" s="12" t="inlineStr">
@@ -1583,34 +1583,34 @@
         </is>
       </c>
       <c r="C7" s="12" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.5390070921985816</v>
       </c>
       <c r="F7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.5390070921985816</v>
       </c>
       <c r="G7" s="12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3689320388349514</v>
       </c>
       <c r="H7" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
@@ -1619,34 +1619,34 @@
         </is>
       </c>
       <c r="C8" s="11" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D8" s="11" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.7522935779816514</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="F8" s="11" t="n">
-        <v>0.7522935779816514</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="G8" s="11" t="n">
-        <v>0.6029411764705882</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H8" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I8" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J8" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B9" s="12" t="inlineStr">
@@ -1655,34 +1655,34 @@
         </is>
       </c>
       <c r="C9" s="12" t="n">
-        <v>0.6144578313253012</v>
+        <v>0.5975609756097561</v>
       </c>
       <c r="D9" s="12" t="n">
-        <v>0.85</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.7132867132867133</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>0.7132867132867133</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>0.5543478260869565</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="H9" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B10" s="11" t="inlineStr">
@@ -1691,34 +1691,34 @@
         </is>
       </c>
       <c r="C10" s="11" t="n">
-        <v>0.84</v>
+        <v>0.6875</v>
       </c>
       <c r="D10" s="11" t="n">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>0.4941176470588235</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="F10" s="11" t="n">
-        <v>0.4941176470588235</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G10" s="11" t="n">
-        <v>0.328125</v>
+        <v>0.44</v>
       </c>
       <c r="H10" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I10" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J10" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B11" s="12" t="inlineStr">
@@ -1727,34 +1727,34 @@
         </is>
       </c>
       <c r="C11" s="12" t="n">
-        <v>0.85</v>
+        <v>0.875</v>
       </c>
       <c r="D11" s="12" t="n">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="12" t="n">
-        <v>0.85</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>0.85</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H11" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B12" s="11" t="inlineStr">
@@ -1763,34 +1763,34 @@
         </is>
       </c>
       <c r="C12" s="11" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="D12" s="11" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>0.4081632653061224</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F12" s="11" t="n">
-        <v>0.4081632653061224</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G12" s="11" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H12" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I12" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J12" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B13" s="12" t="inlineStr">
@@ -1799,34 +1799,34 @@
         </is>
       </c>
       <c r="C13" s="12" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="D13" s="12" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="E13" s="12" t="n">
-        <v>0.5565217391304348</v>
+        <v>0.453125</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>0.5565217391304348</v>
+        <v>0.453125</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0.3855421686746988</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="H13" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B14" s="11" t="inlineStr">
@@ -1835,34 +1835,34 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>0.3164556962025316</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="D14" s="11" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="E14" s="11" t="n">
-        <v>0.4587155963302752</v>
+        <v>0.6991869918699187</v>
       </c>
       <c r="F14" s="11" t="n">
-        <v>0.4587155963302752</v>
+        <v>0.6991869918699187</v>
       </c>
       <c r="G14" s="11" t="n">
-        <v>0.2976190476190476</v>
+        <v>0.5375</v>
       </c>
       <c r="H14" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I14" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J14" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B15" s="12" t="inlineStr">
@@ -1871,34 +1871,34 @@
         </is>
       </c>
       <c r="C15" s="12" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D15" s="12" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="E15" s="12" t="n">
-        <v>0.8305084745762712</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="F15" s="12" t="n">
-        <v>0.8305084745762712</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="G15" s="12" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="H15" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B16" s="11" t="inlineStr">
@@ -1907,34 +1907,34 @@
         </is>
       </c>
       <c r="C16" s="11" t="n">
-        <v>0.2761904761904762</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="D16" s="11" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>0.3515151515151515</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="F16" s="11" t="n">
-        <v>0.3515151515151515</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="G16" s="11" t="n">
-        <v>0.213235294117647</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="H16" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I16" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J16" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B17" s="12" t="inlineStr">
@@ -1943,34 +1943,34 @@
         </is>
       </c>
       <c r="C17" s="12" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D17" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="12" t="n">
-        <v>0.119047619047619</v>
+        <v>0.3</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>0.119047619047619</v>
+        <v>0.3</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v>0.06329113924050631</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="H17" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I17" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J17" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B18" s="11" t="inlineStr">
@@ -1979,34 +1979,34 @@
         </is>
       </c>
       <c r="C18" s="11" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D18" s="11" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="11" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="F18" s="11" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="G18" s="11" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="H18" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I18" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J18" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
@@ -2015,34 +2015,34 @@
         </is>
       </c>
       <c r="C19" s="12" t="n">
-        <v>0.819672131147541</v>
+        <v>0.6626506024096386</v>
       </c>
       <c r="D19" s="12" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E19" s="12" t="n">
-        <v>0.8264462809917356</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>0.8264462809917356</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G19" s="12" t="n">
-        <v>0.704225352112676</v>
+        <v>0.625</v>
       </c>
       <c r="H19" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I19" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J19" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B20" s="11" t="inlineStr">
@@ -2051,34 +2051,34 @@
         </is>
       </c>
       <c r="C20" s="11" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.376068376068376</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>0.547945205479452</v>
+        <v>0.4971751412429379</v>
       </c>
       <c r="F20" s="11" t="n">
-        <v>0.547945205479452</v>
+        <v>0.4971751412429379</v>
       </c>
       <c r="G20" s="11" t="n">
-        <v>0.3773584905660377</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="H20" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I20" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J20" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
@@ -2087,34 +2087,34 @@
         </is>
       </c>
       <c r="C21" s="12" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="D21" s="12" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="E21" s="12" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.4554455445544554</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.4554455445544554</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v>0.3265306122448979</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="H21" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I21" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J21" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B22" s="11" t="inlineStr">
@@ -2123,34 +2123,34 @@
         </is>
       </c>
       <c r="C22" s="11" t="n">
-        <v>0.7258064516129032</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>0.75</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E22" s="11" t="n">
-        <v>0.7377049180327869</v>
+        <v>0.6846846846846847</v>
       </c>
       <c r="F22" s="11" t="n">
-        <v>0.7377049180327869</v>
+        <v>0.6846846846846847</v>
       </c>
       <c r="G22" s="11" t="n">
-        <v>0.5844155844155844</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="H22" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I22" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J22" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
@@ -2159,34 +2159,34 @@
         </is>
       </c>
       <c r="C23" s="12" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="D23" s="12" t="n">
-        <v>0.7</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="E23" s="12" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="F23" s="12" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="G23" s="12" t="n">
-        <v>0.4468085106382978</v>
+        <v>0.49</v>
       </c>
       <c r="H23" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I23" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J23" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B24" s="11" t="inlineStr">
@@ -2195,34 +2195,34 @@
         </is>
       </c>
       <c r="C24" s="11" t="n">
-        <v>0.6341463414634146</v>
+        <v>0.625</v>
       </c>
       <c r="D24" s="11" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="11" t="n">
-        <v>0.5148514851485149</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F24" s="11" t="n">
-        <v>0.5148514851485149</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G24" s="11" t="n">
-        <v>0.3466666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="H24" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I24" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J24" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
@@ -2231,34 +2231,34 @@
         </is>
       </c>
       <c r="C25" s="12" t="n">
-        <v>0.4125</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="D25" s="12" t="n">
-        <v>0.55</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E25" s="12" t="n">
-        <v>0.4714285714285714</v>
+        <v>0.544</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>0.4714285714285714</v>
+        <v>0.544</v>
       </c>
       <c r="G25" s="12" t="n">
-        <v>0.308411214953271</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="H25" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I25" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J25" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B26" s="11" t="inlineStr">
@@ -2267,34 +2267,34 @@
         </is>
       </c>
       <c r="C26" s="11" t="n">
-        <v>0.4880952380952381</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="D26" s="11" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="E26" s="11" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="F26" s="11" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="G26" s="11" t="n">
-        <v>0.3980582524271844</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="H26" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I26" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J26" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
@@ -2303,34 +2303,34 @@
         </is>
       </c>
       <c r="C27" s="12" t="n">
-        <v>0.6329113924050633</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="E27" s="12" t="n">
-        <v>0.7194244604316546</v>
+        <v>0.7387387387387387</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>0.7194244604316546</v>
+        <v>0.7387387387387387</v>
       </c>
       <c r="G27" s="12" t="n">
-        <v>0.5617977528089888</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="H27" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I27" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J27" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B28" s="11" t="inlineStr">
@@ -2339,34 +2339,34 @@
         </is>
       </c>
       <c r="C28" s="11" t="n">
-        <v>0.4</v>
+        <v>0.3936170212765957</v>
       </c>
       <c r="D28" s="11" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="E28" s="11" t="n">
-        <v>0.4903225806451612</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="F28" s="11" t="n">
-        <v>0.4903225806451612</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="G28" s="11" t="n">
-        <v>0.3247863247863248</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="H28" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I28" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J28" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
@@ -2375,34 +2375,34 @@
         </is>
       </c>
       <c r="C29" s="12" t="n">
-        <v>0.6615384615384615</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="D29" s="12" t="n">
         <v>0.7166666666666667</v>
       </c>
       <c r="E29" s="12" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6099290780141844</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6099290780141844</v>
       </c>
       <c r="G29" s="12" t="n">
-        <v>0.524390243902439</v>
+        <v>0.4387755102040816</v>
       </c>
       <c r="H29" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I29" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J29" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B30" s="11" t="inlineStr">
@@ -2411,34 +2411,34 @@
         </is>
       </c>
       <c r="C30" s="11" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D30" s="11" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="E30" s="11" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="F30" s="11" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="G30" s="11" t="n">
-        <v>0.2463768115942029</v>
+        <v>0.21875</v>
       </c>
       <c r="H30" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I30" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J30" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
@@ -2447,34 +2447,34 @@
         </is>
       </c>
       <c r="C31" s="12" t="n">
-        <v>0.3773584905660377</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="D31" s="12" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="E31" s="12" t="n">
-        <v>0.3539823008849557</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>0.3539823008849557</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="H31" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I31" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J31" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B32" s="11" t="inlineStr">
@@ -2483,34 +2483,34 @@
         </is>
       </c>
       <c r="C32" s="11" t="n">
-        <v>0.6197183098591549</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="D32" s="11" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="E32" s="11" t="n">
-        <v>0.6717557251908397</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="F32" s="11" t="n">
-        <v>0.6717557251908397</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="G32" s="11" t="n">
-        <v>0.5057471264367817</v>
+        <v>0.3796296296296296</v>
       </c>
       <c r="H32" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I32" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J32" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
@@ -2519,34 +2519,34 @@
         </is>
       </c>
       <c r="C33" s="12" t="n">
-        <v>0.88</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D33" s="12" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.35</v>
       </c>
       <c r="E33" s="12" t="n">
-        <v>0.5176470588235295</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>0.5176470588235295</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="G33" s="12" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="H33" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I33" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J33" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B34" s="11" t="inlineStr">
@@ -2555,34 +2555,34 @@
         </is>
       </c>
       <c r="C34" s="11" t="n">
-        <v>0.6</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>0.5</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="E34" s="11" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="F34" s="11" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="G34" s="11" t="n">
-        <v>0.375</v>
+        <v>0.2695652173913043</v>
       </c>
       <c r="H34" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I34" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J34" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
@@ -2591,34 +2591,34 @@
         </is>
       </c>
       <c r="C35" s="12" t="n">
-        <v>0.819672131147541</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D35" s="12" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.85</v>
       </c>
       <c r="E35" s="12" t="n">
-        <v>0.8264462809917356</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>0.8264462809917356</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="G35" s="12" t="n">
-        <v>0.704225352112676</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="H35" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I35" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J35" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B36" s="11" t="inlineStr">
@@ -2627,34 +2627,34 @@
         </is>
       </c>
       <c r="C36" s="11" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.75</v>
       </c>
       <c r="D36" s="11" t="n">
-        <v>0.3833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E36" s="11" t="n">
-        <v>0.5168539325842697</v>
+        <v>0.375</v>
       </c>
       <c r="F36" s="11" t="n">
-        <v>0.5168539325842697</v>
+        <v>0.375</v>
       </c>
       <c r="G36" s="11" t="n">
-        <v>0.3484848484848485</v>
+        <v>0.2307692307692307</v>
       </c>
       <c r="H36" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I36" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J36" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
@@ -2663,34 +2663,34 @@
         </is>
       </c>
       <c r="C37" s="12" t="n">
-        <v>0.696969696969697</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="D37" s="12" t="n">
-        <v>0.3833333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="E37" s="12" t="n">
-        <v>0.4946236559139785</v>
+        <v>0.5360824742268041</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>0.4946236559139785</v>
+        <v>0.5360824742268041</v>
       </c>
       <c r="G37" s="12" t="n">
-        <v>0.3285714285714285</v>
+        <v>0.3661971830985915</v>
       </c>
       <c r="H37" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I37" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J37" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B38" s="11" t="inlineStr">
@@ -2699,34 +2699,34 @@
         </is>
       </c>
       <c r="C38" s="11" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="D38" s="11" t="n">
         <v>0.8666666666666667</v>
       </c>
       <c r="E38" s="11" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="F38" s="11" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="G38" s="11" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H38" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I38" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J38" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
@@ -2735,34 +2735,34 @@
         </is>
       </c>
       <c r="C39" s="12" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>0.15</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="E39" s="12" t="n">
-        <v>0.2465753424657534</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>0.2465753424657534</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>0.140625</v>
+        <v>0.0735294117647058</v>
       </c>
       <c r="H39" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I39" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J39" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B40" s="11" t="inlineStr">
@@ -2771,34 +2771,34 @@
         </is>
       </c>
       <c r="C40" s="11" t="n">
-        <v>0.4731182795698925</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D40" s="11" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E40" s="11" t="n">
-        <v>0.5751633986928104</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="F40" s="11" t="n">
-        <v>0.5751633986928104</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="G40" s="11" t="n">
-        <v>0.4036697247706422</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="H40" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I40" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J40" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
@@ -2807,34 +2807,34 @@
         </is>
       </c>
       <c r="C41" s="12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="D41" s="12" t="n">
-        <v>0.7</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E41" s="12" t="n">
-        <v>0.7706422018348624</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>0.7706422018348624</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="G41" s="12" t="n">
-        <v>0.6268656716417911</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="H41" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I41" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J41" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B42" s="11" t="inlineStr">
@@ -2843,34 +2843,34 @@
         </is>
       </c>
       <c r="C42" s="11" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="D42" s="11" t="n">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E42" s="11" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="F42" s="11" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="G42" s="11" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="H42" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I42" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J42" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
@@ -2879,34 +2879,34 @@
         </is>
       </c>
       <c r="C43" s="12" t="n">
-        <v>0.6938775510204082</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="D43" s="12" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E43" s="12" t="n">
-        <v>0.6238532110091743</v>
+        <v>0.5594405594405595</v>
       </c>
       <c r="F43" s="12" t="n">
-        <v>0.6238532110091743</v>
+        <v>0.5594405594405595</v>
       </c>
       <c r="G43" s="12" t="n">
-        <v>0.4533333333333333</v>
+        <v>0.3883495145631068</v>
       </c>
       <c r="H43" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I43" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J43" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B44" s="11" t="inlineStr">
@@ -2915,34 +2915,34 @@
         </is>
       </c>
       <c r="C44" s="11" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="D44" s="11" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>0.4146341463414634</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="F44" s="11" t="n">
-        <v>0.4146341463414634</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="G44" s="11" t="n">
-        <v>0.2615384615384615</v>
+        <v>0.1690140845070422</v>
       </c>
       <c r="H44" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I44" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J44" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
@@ -2951,34 +2951,34 @@
         </is>
       </c>
       <c r="C45" s="12" t="n">
-        <v>0.8</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="D45" s="12" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E45" s="12" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.6614173228346457</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.6614173228346457</v>
       </c>
       <c r="G45" s="12" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.4941176470588235</v>
       </c>
       <c r="H45" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I45" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J45" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B46" s="11" t="inlineStr">
@@ -2987,34 +2987,34 @@
         </is>
       </c>
       <c r="C46" s="11" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="D46" s="11" t="n">
-        <v>0.7</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="E46" s="11" t="n">
-        <v>0.7850467289719626</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="F46" s="11" t="n">
-        <v>0.7850467289719626</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="G46" s="11" t="n">
-        <v>0.6461538461538462</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="H46" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I46" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J46" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
@@ -3023,34 +3023,34 @@
         </is>
       </c>
       <c r="C47" s="12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="D47" s="12" t="n">
-        <v>0.4</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="E47" s="12" t="n">
-        <v>0.5</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="F47" s="12" t="n">
-        <v>0.5</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="G47" s="12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="H47" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I47" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J47" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B48" s="11" t="inlineStr">
@@ -3059,34 +3059,34 @@
         </is>
       </c>
       <c r="C48" s="11" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8</v>
       </c>
       <c r="D48" s="11" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E48" s="11" t="n">
-        <v>0.7433628318584071</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="F48" s="11" t="n">
-        <v>0.7433628318584071</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="G48" s="11" t="n">
-        <v>0.5915492957746479</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="H48" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I48" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J48" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
@@ -3095,34 +3095,34 @@
         </is>
       </c>
       <c r="C49" s="12" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="D49" s="12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="E49" s="12" t="n">
-        <v>0.396039603960396</v>
+        <v>0.5321100917431193</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>0.396039603960396</v>
+        <v>0.5321100917431193</v>
       </c>
       <c r="G49" s="12" t="n">
-        <v>0.2469135802469135</v>
+        <v>0.3625</v>
       </c>
       <c r="H49" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I49" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J49" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="10" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B50" s="11" t="inlineStr">
@@ -3131,34 +3131,34 @@
         </is>
       </c>
       <c r="C50" s="11" t="n">
-        <v>0.88</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="D50" s="11" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="E50" s="11" t="n">
-        <v>0.8</v>
+        <v>0.819047619047619</v>
       </c>
       <c r="F50" s="11" t="n">
-        <v>0.8</v>
+        <v>0.819047619047619</v>
       </c>
       <c r="G50" s="11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="H50" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I50" s="11" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J50" s="11" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>KNN (K=7)</t>
+          <t>KNN (K=9)</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
@@ -3167,28 +3167,28 @@
         </is>
       </c>
       <c r="C51" s="12" t="n">
-        <v>0.8125</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E51" s="12" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.5871559633027523</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.5871559633027523</v>
       </c>
       <c r="G51" s="12" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="H51" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I51" s="12" t="n">
-        <v>0.5946666666666667</v>
+        <v>0.5886666666666667</v>
       </c>
       <c r="J51" s="12" t="n">
-        <v>0.1152501106262207</v>
+        <v>0.2988870143890381</v>
       </c>
     </row>
     <row r="52">
@@ -3224,7 +3224,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J52" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="53">
@@ -3260,7 +3260,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J53" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="54">
@@ -3296,7 +3296,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J54" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="55">
@@ -3332,7 +3332,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J55" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="56">
@@ -3368,7 +3368,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J56" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="57">
@@ -3404,7 +3404,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J57" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="58">
@@ -3440,7 +3440,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J58" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="59">
@@ -3476,7 +3476,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J59" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="60">
@@ -3512,7 +3512,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J60" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J61" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="62">
@@ -3584,7 +3584,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J62" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="63">
@@ -3620,7 +3620,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J63" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="64">
@@ -3656,7 +3656,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J64" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="65">
@@ -3692,7 +3692,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J65" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="66">
@@ -3728,7 +3728,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J66" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="67">
@@ -3764,7 +3764,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J67" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="68">
@@ -3800,7 +3800,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J68" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="69">
@@ -3836,7 +3836,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J69" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="70">
@@ -3872,7 +3872,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J70" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="71">
@@ -3908,7 +3908,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J71" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="72">
@@ -3944,7 +3944,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J72" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="73">
@@ -3980,7 +3980,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J73" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="74">
@@ -4016,7 +4016,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J74" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="75">
@@ -4052,7 +4052,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J75" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="76">
@@ -4088,7 +4088,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J76" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="77">
@@ -4124,7 +4124,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J77" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="78">
@@ -4160,7 +4160,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J78" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="79">
@@ -4196,7 +4196,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J79" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="80">
@@ -4232,7 +4232,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J80" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="81">
@@ -4268,7 +4268,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J81" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="82">
@@ -4304,7 +4304,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J82" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="83">
@@ -4340,7 +4340,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J83" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="84">
@@ -4376,7 +4376,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J84" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="85">
@@ -4412,7 +4412,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J85" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="86">
@@ -4448,7 +4448,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J86" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="87">
@@ -4484,7 +4484,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J87" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="88">
@@ -4520,7 +4520,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J88" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="89">
@@ -4556,7 +4556,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J89" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="90">
@@ -4592,7 +4592,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J90" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="91">
@@ -4628,7 +4628,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J91" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="92">
@@ -4664,7 +4664,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J92" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="93">
@@ -4700,7 +4700,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J93" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="94">
@@ -4736,7 +4736,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J94" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="95">
@@ -4772,7 +4772,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J95" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="96">
@@ -4808,7 +4808,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J96" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="97">
@@ -4844,7 +4844,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J97" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="98">
@@ -4880,7 +4880,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J98" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="99">
@@ -4916,7 +4916,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J99" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="100">
@@ -4952,7 +4952,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J100" s="11" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="101">
@@ -4988,7 +4988,7 @@
         <v>0.7466666666666667</v>
       </c>
       <c r="J101" s="12" t="n">
-        <v>6.488792181015015</v>
+        <v>97.23664617538452</v>
       </c>
     </row>
     <row r="102">
@@ -5021,10 +5021,10 @@
         <v>60</v>
       </c>
       <c r="I102" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J102" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="103">
@@ -5039,28 +5039,28 @@
         </is>
       </c>
       <c r="C103" s="12" t="n">
-        <v>0.3506493506493506</v>
+        <v>0.3414634146341463</v>
       </c>
       <c r="D103" s="12" t="n">
-        <v>0.45</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E103" s="12" t="n">
-        <v>0.3941605839416058</v>
+        <v>0.3943661971830985</v>
       </c>
       <c r="F103" s="12" t="n">
-        <v>0.3941605839416058</v>
+        <v>0.3943661971830985</v>
       </c>
       <c r="G103" s="12" t="n">
-        <v>0.2454545454545454</v>
+        <v>0.2456140350877192</v>
       </c>
       <c r="H103" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I103" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J103" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="104">
@@ -5093,10 +5093,10 @@
         <v>60</v>
       </c>
       <c r="I104" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J104" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="105">
@@ -5129,10 +5129,10 @@
         <v>60</v>
       </c>
       <c r="I105" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J105" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="106">
@@ -5165,10 +5165,10 @@
         <v>60</v>
       </c>
       <c r="I106" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J106" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="107">
@@ -5183,28 +5183,28 @@
         </is>
       </c>
       <c r="C107" s="12" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="D107" s="12" t="n">
         <v>0.65</v>
       </c>
       <c r="E107" s="12" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.6141732283464567</v>
       </c>
       <c r="F107" s="12" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.6141732283464567</v>
       </c>
       <c r="G107" s="12" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4431818181818182</v>
       </c>
       <c r="H107" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I107" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J107" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="108">
@@ -5237,10 +5237,10 @@
         <v>60</v>
       </c>
       <c r="I108" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J108" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="109">
@@ -5255,28 +5255,28 @@
         </is>
       </c>
       <c r="C109" s="12" t="n">
-        <v>0.828125</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="D109" s="12" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E109" s="12" t="n">
-        <v>0.8548387096774194</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>0.8548387096774194</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="G109" s="12" t="n">
-        <v>0.7464788732394366</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="H109" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I109" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J109" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="110">
@@ -5291,28 +5291,28 @@
         </is>
       </c>
       <c r="C110" s="11" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.86</v>
       </c>
       <c r="D110" s="11" t="n">
         <v>0.7166666666666667</v>
       </c>
       <c r="E110" s="11" t="n">
-        <v>0.7747747747747747</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F110" s="11" t="n">
-        <v>0.7747747747747747</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="G110" s="11" t="n">
-        <v>0.6323529411764706</v>
+        <v>0.6417910447761194</v>
       </c>
       <c r="H110" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I110" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J110" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="111">
@@ -5345,10 +5345,10 @@
         <v>60</v>
       </c>
       <c r="I111" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J111" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="112">
@@ -5363,28 +5363,28 @@
         </is>
       </c>
       <c r="C112" s="11" t="n">
-        <v>0.4464285714285714</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="D112" s="11" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="E112" s="11" t="n">
-        <v>0.4310344827586206</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="F112" s="11" t="n">
-        <v>0.4310344827586206</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="G112" s="11" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.2696629213483146</v>
       </c>
       <c r="H112" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I112" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J112" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="113">
@@ -5399,28 +5399,28 @@
         </is>
       </c>
       <c r="C113" s="12" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D113" s="12" t="n">
         <v>0.6333333333333333</v>
       </c>
       <c r="E113" s="12" t="n">
-        <v>0.6608695652173913</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>0.6608695652173913</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="G113" s="12" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.4871794871794871</v>
       </c>
       <c r="H113" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I113" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J113" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="114">
@@ -5435,28 +5435,28 @@
         </is>
       </c>
       <c r="C114" s="11" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="D114" s="11" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="E114" s="11" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.6993006993006993</v>
       </c>
       <c r="F114" s="11" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.6993006993006993</v>
       </c>
       <c r="G114" s="11" t="n">
-        <v>0.5319148936170213</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="H114" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I114" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J114" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="115">
@@ -5489,10 +5489,10 @@
         <v>60</v>
       </c>
       <c r="I115" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J115" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="116">
@@ -5525,10 +5525,10 @@
         <v>60</v>
       </c>
       <c r="I116" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J116" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="117">
@@ -5543,28 +5543,28 @@
         </is>
       </c>
       <c r="C117" s="12" t="n">
-        <v>0.5660377358490566</v>
+        <v>0.58</v>
       </c>
       <c r="D117" s="12" t="n">
-        <v>0.5</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="E117" s="12" t="n">
-        <v>0.5309734513274337</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="F117" s="12" t="n">
-        <v>0.5309734513274337</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="G117" s="12" t="n">
-        <v>0.3614457831325301</v>
+        <v>0.3580246913580246</v>
       </c>
       <c r="H117" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I117" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J117" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="118">
@@ -5579,28 +5579,28 @@
         </is>
       </c>
       <c r="C118" s="11" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.578125</v>
       </c>
       <c r="D118" s="11" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="E118" s="11" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.5967741935483871</v>
       </c>
       <c r="F118" s="11" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.5967741935483871</v>
       </c>
       <c r="G118" s="11" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.425287356321839</v>
       </c>
       <c r="H118" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I118" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J118" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="119">
@@ -5615,28 +5615,28 @@
         </is>
       </c>
       <c r="C119" s="12" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="D119" s="12" t="n">
         <v>0.9333333333333332</v>
       </c>
       <c r="E119" s="12" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.896</v>
       </c>
       <c r="F119" s="12" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.896</v>
       </c>
       <c r="G119" s="12" t="n">
-        <v>0.8</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="H119" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I119" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J119" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="120">
@@ -5651,28 +5651,28 @@
         </is>
       </c>
       <c r="C120" s="11" t="n">
-        <v>0.6</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>0.75</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="E120" s="11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6962962962962963</v>
       </c>
       <c r="F120" s="11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6962962962962963</v>
       </c>
       <c r="G120" s="11" t="n">
-        <v>0.5</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="H120" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I120" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J120" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="121">
@@ -5687,28 +5687,28 @@
         </is>
       </c>
       <c r="C121" s="12" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="D121" s="12" t="n">
         <v>0.7166666666666667</v>
       </c>
       <c r="E121" s="12" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7107438016528925</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7107438016528925</v>
       </c>
       <c r="G121" s="12" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="H121" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I121" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J121" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="122">
@@ -5723,28 +5723,28 @@
         </is>
       </c>
       <c r="C122" s="11" t="n">
-        <v>0.7611940298507462</v>
+        <v>0.7761194029850746</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>0.85</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E122" s="11" t="n">
-        <v>0.8031496062992126</v>
+        <v>0.8188976377952756</v>
       </c>
       <c r="F122" s="11" t="n">
-        <v>0.8031496062992126</v>
+        <v>0.8188976377952756</v>
       </c>
       <c r="G122" s="11" t="n">
-        <v>0.6710526315789473</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="H122" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I122" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J122" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="123">
@@ -5777,10 +5777,10 @@
         <v>60</v>
       </c>
       <c r="I123" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J123" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="124">
@@ -5795,28 +5795,28 @@
         </is>
       </c>
       <c r="C124" s="11" t="n">
-        <v>0.639344262295082</v>
+        <v>0.65</v>
       </c>
       <c r="D124" s="11" t="n">
         <v>0.65</v>
       </c>
       <c r="E124" s="11" t="n">
-        <v>0.6446280991735537</v>
+        <v>0.65</v>
       </c>
       <c r="F124" s="11" t="n">
-        <v>0.6446280991735537</v>
+        <v>0.65</v>
       </c>
       <c r="G124" s="11" t="n">
-        <v>0.4756097560975609</v>
+        <v>0.4814814814814814</v>
       </c>
       <c r="H124" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I124" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J124" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="125">
@@ -5831,28 +5831,28 @@
         </is>
       </c>
       <c r="C125" s="12" t="n">
-        <v>0.7068965517241379</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="D125" s="12" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E125" s="12" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="G125" s="12" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="H125" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I125" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J125" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="126">
@@ -5867,28 +5867,28 @@
         </is>
       </c>
       <c r="C126" s="11" t="n">
-        <v>0.6271186440677966</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D126" s="11" t="n">
         <v>0.6166666666666667</v>
       </c>
       <c r="E126" s="11" t="n">
-        <v>0.6218487394957983</v>
+        <v>0.6115702479338843</v>
       </c>
       <c r="F126" s="11" t="n">
-        <v>0.6218487394957983</v>
+        <v>0.6115702479338843</v>
       </c>
       <c r="G126" s="11" t="n">
-        <v>0.4512195121951219</v>
+        <v>0.4404761904761904</v>
       </c>
       <c r="H126" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I126" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J126" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="127">
@@ -5903,28 +5903,28 @@
         </is>
       </c>
       <c r="C127" s="12" t="n">
-        <v>0.7674418604651163</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D127" s="12" t="n">
-        <v>0.55</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E127" s="12" t="n">
-        <v>0.6407766990291263</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="F127" s="12" t="n">
-        <v>0.6407766990291263</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G127" s="12" t="n">
-        <v>0.4714285714285714</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="H127" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I127" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J127" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="128">
@@ -5939,28 +5939,28 @@
         </is>
       </c>
       <c r="C128" s="11" t="n">
-        <v>0.576271186440678</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E128" s="11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="F128" s="11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="G128" s="11" t="n">
-        <v>0.4</v>
+        <v>0.4137931034482758</v>
       </c>
       <c r="H128" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I128" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J128" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="129">
@@ -5993,10 +5993,10 @@
         <v>60</v>
       </c>
       <c r="I129" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J129" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="130">
@@ -6011,28 +6011,28 @@
         </is>
       </c>
       <c r="C130" s="11" t="n">
-        <v>0.660377358490566</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="E130" s="11" t="n">
-        <v>0.6194690265486725</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F130" s="11" t="n">
-        <v>0.6194690265486725</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="G130" s="11" t="n">
-        <v>0.4487179487179487</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="H130" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I130" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J130" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="131">
@@ -6047,28 +6047,28 @@
         </is>
       </c>
       <c r="C131" s="12" t="n">
-        <v>0.5</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="D131" s="12" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E131" s="12" t="n">
-        <v>0.5522388059701493</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="F131" s="12" t="n">
-        <v>0.5522388059701493</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="G131" s="12" t="n">
-        <v>0.3814432989690721</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="H131" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I131" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J131" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="132">
@@ -6101,10 +6101,10 @@
         <v>60</v>
       </c>
       <c r="I132" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J132" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="133">
@@ -6119,28 +6119,28 @@
         </is>
       </c>
       <c r="C133" s="12" t="n">
-        <v>0.547945205479452</v>
+        <v>0.5492957746478874</v>
       </c>
       <c r="D133" s="12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="E133" s="12" t="n">
-        <v>0.6015037593984962</v>
+        <v>0.5954198473282443</v>
       </c>
       <c r="F133" s="12" t="n">
-        <v>0.6015037593984962</v>
+        <v>0.5954198473282443</v>
       </c>
       <c r="G133" s="12" t="n">
-        <v>0.4301075268817204</v>
+        <v>0.4239130434782608</v>
       </c>
       <c r="H133" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I133" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J133" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="134">
@@ -6155,28 +6155,28 @@
         </is>
       </c>
       <c r="C134" s="11" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E134" s="11" t="n">
-        <v>0.6434782608695652</v>
+        <v>0.6608695652173913</v>
       </c>
       <c r="F134" s="11" t="n">
-        <v>0.6434782608695652</v>
+        <v>0.6608695652173913</v>
       </c>
       <c r="G134" s="11" t="n">
-        <v>0.4743589743589743</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="H134" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I134" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J134" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="135">
@@ -6209,10 +6209,10 @@
         <v>60</v>
       </c>
       <c r="I135" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J135" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="136">
@@ -6245,10 +6245,10 @@
         <v>60</v>
       </c>
       <c r="I136" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J136" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="137">
@@ -6263,28 +6263,28 @@
         </is>
       </c>
       <c r="C137" s="12" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="D137" s="12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="E137" s="12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="F137" s="12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="G137" s="12" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="H137" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I137" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J137" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="138">
@@ -6317,10 +6317,10 @@
         <v>60</v>
       </c>
       <c r="I138" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J138" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="139">
@@ -6335,28 +6335,28 @@
         </is>
       </c>
       <c r="C139" s="12" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="D139" s="12" t="n">
-        <v>0.2666666666666666</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="E139" s="12" t="n">
-        <v>0.3265306122448979</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="F139" s="12" t="n">
-        <v>0.3265306122448979</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="G139" s="12" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="H139" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I139" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J139" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="140">
@@ -6371,28 +6371,28 @@
         </is>
       </c>
       <c r="C140" s="11" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="D140" s="11" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="E140" s="11" t="n">
-        <v>0.6608695652173913</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="F140" s="11" t="n">
-        <v>0.6608695652173913</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="G140" s="11" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="H140" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I140" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J140" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="141">
@@ -6425,10 +6425,10 @@
         <v>60</v>
       </c>
       <c r="I141" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J141" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="142">
@@ -6461,10 +6461,10 @@
         <v>60</v>
       </c>
       <c r="I142" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J142" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="143">
@@ -6497,10 +6497,10 @@
         <v>60</v>
       </c>
       <c r="I143" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J143" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="144">
@@ -6533,10 +6533,10 @@
         <v>60</v>
       </c>
       <c r="I144" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J144" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="145">
@@ -6569,10 +6569,10 @@
         <v>60</v>
       </c>
       <c r="I145" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J145" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="146">
@@ -6605,10 +6605,10 @@
         <v>60</v>
       </c>
       <c r="I146" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J146" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="147">
@@ -6623,28 +6623,28 @@
         </is>
       </c>
       <c r="C147" s="12" t="n">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D147" s="12" t="n">
         <v>0.5833333333333334</v>
       </c>
       <c r="E147" s="12" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6422018348623854</v>
       </c>
       <c r="F147" s="12" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6422018348623854</v>
       </c>
       <c r="G147" s="12" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4729729729729729</v>
       </c>
       <c r="H147" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I147" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J147" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="148">
@@ -6677,10 +6677,10 @@
         <v>60</v>
       </c>
       <c r="I148" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J148" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="149">
@@ -6713,10 +6713,10 @@
         <v>60</v>
       </c>
       <c r="I149" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J149" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="150">
@@ -6749,10 +6749,10 @@
         <v>60</v>
       </c>
       <c r="I150" s="11" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J150" s="11" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="151">
@@ -6767,28 +6767,28 @@
         </is>
       </c>
       <c r="C151" s="12" t="n">
-        <v>0.78</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="D151" s="12" t="n">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E151" s="12" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F151" s="12" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="G151" s="12" t="n">
-        <v>0.5492957746478874</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="H151" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I151" s="12" t="n">
-        <v>0.7126666666666667</v>
+        <v>0.7153333333333334</v>
       </c>
       <c r="J151" s="12" t="n">
-        <v>3.092616081237793</v>
+        <v>20.8943738937378</v>
       </c>
     </row>
     <row r="152">
@@ -6824,7 +6824,7 @@
         <v>0.696</v>
       </c>
       <c r="J152" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="153">
@@ -6860,7 +6860,7 @@
         <v>0.696</v>
       </c>
       <c r="J153" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="154">
@@ -6896,7 +6896,7 @@
         <v>0.696</v>
       </c>
       <c r="J154" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="155">
@@ -6932,7 +6932,7 @@
         <v>0.696</v>
       </c>
       <c r="J155" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="156">
@@ -6968,7 +6968,7 @@
         <v>0.696</v>
       </c>
       <c r="J156" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="157">
@@ -7004,7 +7004,7 @@
         <v>0.696</v>
       </c>
       <c r="J157" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="158">
@@ -7040,7 +7040,7 @@
         <v>0.696</v>
       </c>
       <c r="J158" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="159">
@@ -7076,7 +7076,7 @@
         <v>0.696</v>
       </c>
       <c r="J159" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="160">
@@ -7112,7 +7112,7 @@
         <v>0.696</v>
       </c>
       <c r="J160" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="161">
@@ -7148,7 +7148,7 @@
         <v>0.696</v>
       </c>
       <c r="J161" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="162">
@@ -7184,7 +7184,7 @@
         <v>0.696</v>
       </c>
       <c r="J162" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="163">
@@ -7220,7 +7220,7 @@
         <v>0.696</v>
       </c>
       <c r="J163" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="164">
@@ -7256,7 +7256,7 @@
         <v>0.696</v>
       </c>
       <c r="J164" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="165">
@@ -7292,7 +7292,7 @@
         <v>0.696</v>
       </c>
       <c r="J165" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="166">
@@ -7328,7 +7328,7 @@
         <v>0.696</v>
       </c>
       <c r="J166" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="167">
@@ -7364,7 +7364,7 @@
         <v>0.696</v>
       </c>
       <c r="J167" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="168">
@@ -7400,7 +7400,7 @@
         <v>0.696</v>
       </c>
       <c r="J168" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="169">
@@ -7436,7 +7436,7 @@
         <v>0.696</v>
       </c>
       <c r="J169" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="170">
@@ -7472,7 +7472,7 @@
         <v>0.696</v>
       </c>
       <c r="J170" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="171">
@@ -7508,7 +7508,7 @@
         <v>0.696</v>
       </c>
       <c r="J171" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="172">
@@ -7544,7 +7544,7 @@
         <v>0.696</v>
       </c>
       <c r="J172" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="173">
@@ -7580,7 +7580,7 @@
         <v>0.696</v>
       </c>
       <c r="J173" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="174">
@@ -7616,7 +7616,7 @@
         <v>0.696</v>
       </c>
       <c r="J174" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="175">
@@ -7652,7 +7652,7 @@
         <v>0.696</v>
       </c>
       <c r="J175" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="176">
@@ -7688,7 +7688,7 @@
         <v>0.696</v>
       </c>
       <c r="J176" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="177">
@@ -7724,7 +7724,7 @@
         <v>0.696</v>
       </c>
       <c r="J177" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="178">
@@ -7760,7 +7760,7 @@
         <v>0.696</v>
       </c>
       <c r="J178" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="179">
@@ -7796,7 +7796,7 @@
         <v>0.696</v>
       </c>
       <c r="J179" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="180">
@@ -7832,7 +7832,7 @@
         <v>0.696</v>
       </c>
       <c r="J180" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="181">
@@ -7868,7 +7868,7 @@
         <v>0.696</v>
       </c>
       <c r="J181" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="182">
@@ -7904,7 +7904,7 @@
         <v>0.696</v>
       </c>
       <c r="J182" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="183">
@@ -7940,7 +7940,7 @@
         <v>0.696</v>
       </c>
       <c r="J183" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="184">
@@ -7976,7 +7976,7 @@
         <v>0.696</v>
       </c>
       <c r="J184" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="185">
@@ -8012,7 +8012,7 @@
         <v>0.696</v>
       </c>
       <c r="J185" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="186">
@@ -8048,7 +8048,7 @@
         <v>0.696</v>
       </c>
       <c r="J186" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="187">
@@ -8084,7 +8084,7 @@
         <v>0.696</v>
       </c>
       <c r="J187" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="188">
@@ -8120,7 +8120,7 @@
         <v>0.696</v>
       </c>
       <c r="J188" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="189">
@@ -8156,7 +8156,7 @@
         <v>0.696</v>
       </c>
       <c r="J189" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="190">
@@ -8192,7 +8192,7 @@
         <v>0.696</v>
       </c>
       <c r="J190" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="191">
@@ -8228,7 +8228,7 @@
         <v>0.696</v>
       </c>
       <c r="J191" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="192">
@@ -8264,7 +8264,7 @@
         <v>0.696</v>
       </c>
       <c r="J192" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="193">
@@ -8300,7 +8300,7 @@
         <v>0.696</v>
       </c>
       <c r="J193" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="194">
@@ -8336,7 +8336,7 @@
         <v>0.696</v>
       </c>
       <c r="J194" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="195">
@@ -8372,7 +8372,7 @@
         <v>0.696</v>
       </c>
       <c r="J195" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="196">
@@ -8408,7 +8408,7 @@
         <v>0.696</v>
       </c>
       <c r="J196" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="197">
@@ -8444,7 +8444,7 @@
         <v>0.696</v>
       </c>
       <c r="J197" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="198">
@@ -8480,7 +8480,7 @@
         <v>0.696</v>
       </c>
       <c r="J198" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="199">
@@ -8516,7 +8516,7 @@
         <v>0.696</v>
       </c>
       <c r="J199" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="200">
@@ -8552,7 +8552,7 @@
         <v>0.696</v>
       </c>
       <c r="J200" s="11" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="201">
@@ -8588,7 +8588,7 @@
         <v>0.696</v>
       </c>
       <c r="J201" s="12" t="n">
-        <v>0.1844041347503662</v>
+        <v>0.1879098415374755</v>
       </c>
     </row>
     <row r="202">
@@ -8603,28 +8603,28 @@
         </is>
       </c>
       <c r="C202" s="11" t="n">
-        <v>0.8450704225352113</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="D202" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E202" s="11" t="n">
-        <v>0.916030534351145</v>
+        <v>0.8955223880597015</v>
       </c>
       <c r="F202" s="11" t="n">
-        <v>0.916030534351145</v>
+        <v>0.8955223880597015</v>
       </c>
       <c r="G202" s="11" t="n">
-        <v>0.8450704225352113</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="H202" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I202" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J202" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="203">
@@ -8639,28 +8639,28 @@
         </is>
       </c>
       <c r="C203" s="12" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.5</v>
       </c>
       <c r="D203" s="12" t="n">
-        <v>0.2</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="E203" s="12" t="n">
-        <v>0.2790697674418604</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="F203" s="12" t="n">
-        <v>0.2790697674418604</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="G203" s="12" t="n">
-        <v>0.1621621621621621</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="H203" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I203" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J203" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="204">
@@ -8675,28 +8675,28 @@
         </is>
       </c>
       <c r="C204" s="11" t="n">
-        <v>0.9090909090909092</v>
+        <v>0.8955223880597015</v>
       </c>
       <c r="D204" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E204" s="11" t="n">
-        <v>0.9523809523809524</v>
+        <v>0.9448818897637796</v>
       </c>
       <c r="F204" s="11" t="n">
-        <v>0.9523809523809524</v>
+        <v>0.9448818897637796</v>
       </c>
       <c r="G204" s="11" t="n">
-        <v>0.9090909090909092</v>
+        <v>0.8955223880597015</v>
       </c>
       <c r="H204" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I204" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J204" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="205">
@@ -8729,10 +8729,10 @@
         <v>60</v>
       </c>
       <c r="I205" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J205" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="206">
@@ -8765,10 +8765,10 @@
         <v>60</v>
       </c>
       <c r="I206" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J206" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="207">
@@ -8783,28 +8783,28 @@
         </is>
       </c>
       <c r="C207" s="12" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="D207" s="12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="E207" s="12" t="n">
-        <v>0.6504065040650406</v>
+        <v>0.7401574803149606</v>
       </c>
       <c r="F207" s="12" t="n">
-        <v>0.6504065040650406</v>
+        <v>0.7401574803149606</v>
       </c>
       <c r="G207" s="12" t="n">
-        <v>0.4819277108433735</v>
+        <v>0.5875</v>
       </c>
       <c r="H207" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I207" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J207" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="208">
@@ -8819,28 +8819,28 @@
         </is>
       </c>
       <c r="C208" s="11" t="n">
-        <v>0.9574468085106383</v>
+        <v>0.9361702127659576</v>
       </c>
       <c r="D208" s="11" t="n">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E208" s="11" t="n">
-        <v>0.8411214953271028</v>
+        <v>0.8224299065420561</v>
       </c>
       <c r="F208" s="11" t="n">
-        <v>0.8411214953271028</v>
+        <v>0.8224299065420561</v>
       </c>
       <c r="G208" s="11" t="n">
-        <v>0.7258064516129032</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="H208" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I208" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J208" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="209">
@@ -8855,28 +8855,28 @@
         </is>
       </c>
       <c r="C209" s="12" t="n">
-        <v>0.676056338028169</v>
+        <v>0.618421052631579</v>
       </c>
       <c r="D209" s="12" t="n">
-        <v>0.8</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="E209" s="12" t="n">
-        <v>0.732824427480916</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="F209" s="12" t="n">
-        <v>0.732824427480916</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="G209" s="12" t="n">
-        <v>0.5783132530120482</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="H209" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I209" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J209" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="210">
@@ -8891,28 +8891,28 @@
         </is>
       </c>
       <c r="C210" s="11" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D210" s="11" t="n">
         <v>0.5666666666666667</v>
       </c>
       <c r="E210" s="11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="F210" s="11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G210" s="11" t="n">
-        <v>0.5</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="H210" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I210" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J210" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="211">
@@ -8927,28 +8927,28 @@
         </is>
       </c>
       <c r="C211" s="12" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="D211" s="12" t="n">
-        <v>0.95</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E211" s="12" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="F211" s="12" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="G211" s="12" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5445544554455446</v>
       </c>
       <c r="H211" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I211" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J211" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="212">
@@ -8963,28 +8963,28 @@
         </is>
       </c>
       <c r="C212" s="11" t="n">
-        <v>0.5074626865671642</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E212" s="11" t="n">
-        <v>0.5354330708661418</v>
+        <v>0.608</v>
       </c>
       <c r="F212" s="11" t="n">
-        <v>0.5354330708661418</v>
+        <v>0.608</v>
       </c>
       <c r="G212" s="11" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.4367816091954023</v>
       </c>
       <c r="H212" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I212" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J212" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="213">
@@ -8999,28 +8999,28 @@
         </is>
       </c>
       <c r="C213" s="12" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="D213" s="12" t="n">
-        <v>0.65</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E213" s="12" t="n">
-        <v>0.6554621848739496</v>
+        <v>0.628099173553719</v>
       </c>
       <c r="F213" s="12" t="n">
-        <v>0.6554621848739496</v>
+        <v>0.628099173553719</v>
       </c>
       <c r="G213" s="12" t="n">
-        <v>0.4875</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="H213" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I213" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J213" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="214">
@@ -9035,28 +9035,28 @@
         </is>
       </c>
       <c r="C214" s="11" t="n">
-        <v>0.5753424657534246</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E214" s="11" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F214" s="11" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G214" s="11" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.5</v>
       </c>
       <c r="H214" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I214" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J214" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="215">
@@ -9071,28 +9071,28 @@
         </is>
       </c>
       <c r="C215" s="12" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="D215" s="12" t="n">
         <v>0.9333333333333332</v>
       </c>
       <c r="E215" s="12" t="n">
-        <v>0.9105691056910568</v>
+        <v>0.9032258064516128</v>
       </c>
       <c r="F215" s="12" t="n">
-        <v>0.9105691056910568</v>
+        <v>0.9032258064516128</v>
       </c>
       <c r="G215" s="12" t="n">
-        <v>0.835820895522388</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="H215" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I215" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J215" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="216">
@@ -9107,28 +9107,28 @@
         </is>
       </c>
       <c r="C216" s="11" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="D216" s="11" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3</v>
       </c>
       <c r="E216" s="11" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="F216" s="11" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="G216" s="11" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.2368421052631578</v>
       </c>
       <c r="H216" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I216" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J216" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="217">
@@ -9143,28 +9143,28 @@
         </is>
       </c>
       <c r="C217" s="12" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="D217" s="12" t="n">
-        <v>0.45</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E217" s="12" t="n">
-        <v>0.5346534653465347</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="F217" s="12" t="n">
-        <v>0.5346534653465347</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="G217" s="12" t="n">
-        <v>0.3648648648648648</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="H217" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I217" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J217" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="218">
@@ -9179,28 +9179,28 @@
         </is>
       </c>
       <c r="C218" s="11" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="E218" s="11" t="n">
-        <v>0.5</v>
+        <v>0.4271844660194174</v>
       </c>
       <c r="F218" s="11" t="n">
-        <v>0.5</v>
+        <v>0.4271844660194174</v>
       </c>
       <c r="G218" s="11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="H218" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I218" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J218" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="219">
@@ -9215,28 +9215,28 @@
         </is>
       </c>
       <c r="C219" s="12" t="n">
-        <v>0.7101449275362319</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="D219" s="12" t="n">
         <v>0.8166666666666667</v>
       </c>
       <c r="E219" s="12" t="n">
-        <v>0.7596899224806202</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F219" s="12" t="n">
-        <v>0.7596899224806202</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G219" s="12" t="n">
-        <v>0.6125</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H219" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I219" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J219" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="220">
@@ -9251,28 +9251,28 @@
         </is>
       </c>
       <c r="C220" s="11" t="n">
-        <v>0.6027397260273972</v>
+        <v>0.618421052631579</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="E220" s="11" t="n">
-        <v>0.6616541353383458</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="F220" s="11" t="n">
-        <v>0.6616541353383458</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="G220" s="11" t="n">
-        <v>0.4943820224719101</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="H220" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I220" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J220" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="221">
@@ -9287,28 +9287,28 @@
         </is>
       </c>
       <c r="C221" s="12" t="n">
-        <v>0.6379310344827587</v>
+        <v>0.6</v>
       </c>
       <c r="D221" s="12" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E221" s="12" t="n">
-        <v>0.6271186440677966</v>
+        <v>0.6</v>
       </c>
       <c r="F221" s="12" t="n">
-        <v>0.6271186440677966</v>
+        <v>0.6</v>
       </c>
       <c r="G221" s="12" t="n">
-        <v>0.4567901234567901</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H221" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I221" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J221" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="222">
@@ -9323,28 +9323,28 @@
         </is>
       </c>
       <c r="C222" s="11" t="n">
-        <v>0.7313432835820896</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D222" s="11" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E222" s="11" t="n">
-        <v>0.7716535433070866</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F222" s="11" t="n">
-        <v>0.7716535433070866</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="G222" s="11" t="n">
-        <v>0.6282051282051282</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="H222" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I222" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J222" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="223">
@@ -9359,28 +9359,28 @@
         </is>
       </c>
       <c r="C223" s="12" t="n">
-        <v>0.5977011494252874</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="D223" s="12" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="E223" s="12" t="n">
-        <v>0.7074829931972789</v>
+        <v>0.6845637583892618</v>
       </c>
       <c r="F223" s="12" t="n">
-        <v>0.7074829931972789</v>
+        <v>0.6845637583892618</v>
       </c>
       <c r="G223" s="12" t="n">
-        <v>0.5473684210526316</v>
+        <v>0.5204081632653061</v>
       </c>
       <c r="H223" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I223" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J223" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="224">
@@ -9395,28 +9395,28 @@
         </is>
       </c>
       <c r="C224" s="11" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E224" s="11" t="n">
-        <v>0.5981308411214953</v>
+        <v>0.6605504587155964</v>
       </c>
       <c r="F224" s="11" t="n">
-        <v>0.5981308411214953</v>
+        <v>0.6605504587155964</v>
       </c>
       <c r="G224" s="11" t="n">
-        <v>0.4266666666666667</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="H224" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I224" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J224" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="225">
@@ -9431,28 +9431,28 @@
         </is>
       </c>
       <c r="C225" s="12" t="n">
-        <v>0.5764705882352941</v>
+        <v>0.575</v>
       </c>
       <c r="D225" s="12" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="E225" s="12" t="n">
-        <v>0.6758620689655173</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="F225" s="12" t="n">
-        <v>0.6758620689655173</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="G225" s="12" t="n">
-        <v>0.5104166666666666</v>
+        <v>0.4893617021276595</v>
       </c>
       <c r="H225" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I225" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J225" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="226">
@@ -9467,28 +9467,28 @@
         </is>
       </c>
       <c r="C226" s="11" t="n">
-        <v>0.5316455696202531</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="D226" s="11" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E226" s="11" t="n">
-        <v>0.6043165467625899</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="F226" s="11" t="n">
-        <v>0.6043165467625899</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="G226" s="11" t="n">
-        <v>0.4329896907216495</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="H226" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I226" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J226" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="227">
@@ -9503,28 +9503,28 @@
         </is>
       </c>
       <c r="C227" s="12" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D227" s="12" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="E227" s="12" t="n">
-        <v>0.6991869918699187</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="F227" s="12" t="n">
-        <v>0.6991869918699187</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="G227" s="12" t="n">
-        <v>0.5375</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="H227" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I227" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J227" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="228">
@@ -9539,28 +9539,28 @@
         </is>
       </c>
       <c r="C228" s="11" t="n">
-        <v>0.543859649122807</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="D228" s="11" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E228" s="11" t="n">
-        <v>0.5299145299145299</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="F228" s="11" t="n">
-        <v>0.5299145299145299</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="G228" s="11" t="n">
-        <v>0.3604651162790697</v>
+        <v>0.3555555555555555</v>
       </c>
       <c r="H228" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I228" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J228" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="229">
@@ -9578,25 +9578,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="D229" s="12" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E229" s="12" t="n">
-        <v>0.7131782945736435</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="F229" s="12" t="n">
-        <v>0.7131782945736435</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="G229" s="12" t="n">
-        <v>0.5542168674698795</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="H229" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I229" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J229" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="230">
@@ -9611,28 +9611,28 @@
         </is>
       </c>
       <c r="C230" s="11" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D230" s="11" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="E230" s="11" t="n">
-        <v>0.5098039215686274</v>
+        <v>0.4313725490196078</v>
       </c>
       <c r="F230" s="11" t="n">
-        <v>0.5098039215686274</v>
+        <v>0.4313725490196078</v>
       </c>
       <c r="G230" s="11" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.275</v>
       </c>
       <c r="H230" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I230" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J230" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="231">
@@ -9647,28 +9647,28 @@
         </is>
       </c>
       <c r="C231" s="12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="D231" s="12" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="E231" s="12" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="F231" s="12" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="G231" s="12" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.3837209302325581</v>
       </c>
       <c r="H231" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I231" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J231" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="232">
@@ -9683,28 +9683,28 @@
         </is>
       </c>
       <c r="C232" s="11" t="n">
-        <v>0.6376811594202898</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="D232" s="11" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="E232" s="11" t="n">
-        <v>0.6821705426356589</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="F232" s="11" t="n">
-        <v>0.6821705426356589</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="G232" s="11" t="n">
-        <v>0.5176470588235295</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="H232" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I232" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J232" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="233">
@@ -9719,28 +9719,28 @@
         </is>
       </c>
       <c r="C233" s="12" t="n">
-        <v>0.5373134328358209</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="D233" s="12" t="n">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E233" s="12" t="n">
-        <v>0.5669291338582677</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="F233" s="12" t="n">
-        <v>0.5669291338582677</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="G233" s="12" t="n">
-        <v>0.3956043956043956</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="H233" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I233" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J233" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="234">
@@ -9755,28 +9755,28 @@
         </is>
       </c>
       <c r="C234" s="11" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.75</v>
       </c>
       <c r="D234" s="11" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E234" s="11" t="n">
-        <v>0.5765765765765766</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F234" s="11" t="n">
-        <v>0.5765765765765766</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G234" s="11" t="n">
-        <v>0.4050632911392405</v>
+        <v>0.5</v>
       </c>
       <c r="H234" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I234" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J234" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="235">
@@ -9791,28 +9791,28 @@
         </is>
       </c>
       <c r="C235" s="12" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="D235" s="12" t="n">
-        <v>0.85</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="E235" s="12" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.8099173553719008</v>
       </c>
       <c r="F235" s="12" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.8099173553719008</v>
       </c>
       <c r="G235" s="12" t="n">
-        <v>0.68</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="H235" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I235" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J235" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="236">
@@ -9827,28 +9827,28 @@
         </is>
       </c>
       <c r="C236" s="11" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="D236" s="11" t="n">
         <v>0.3833333333333333</v>
       </c>
       <c r="E236" s="11" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="F236" s="11" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="G236" s="11" t="n">
-        <v>0.3026315789473684</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="H236" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I236" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J236" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="237">
@@ -9863,28 +9863,28 @@
         </is>
       </c>
       <c r="C237" s="12" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D237" s="12" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E237" s="12" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="F237" s="12" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="G237" s="12" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H237" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I237" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J237" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="238">
@@ -9899,28 +9899,28 @@
         </is>
       </c>
       <c r="C238" s="11" t="n">
-        <v>0.8194444444444444</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="D238" s="11" t="n">
-        <v>0.9833333333333332</v>
+        <v>0.95</v>
       </c>
       <c r="E238" s="11" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.8702290076335878</v>
       </c>
       <c r="F238" s="11" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.8702290076335878</v>
       </c>
       <c r="G238" s="11" t="n">
-        <v>0.8082191780821918</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="H238" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I238" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J238" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="239">
@@ -9935,28 +9935,28 @@
         </is>
       </c>
       <c r="C239" s="12" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="D239" s="12" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="E239" s="12" t="n">
-        <v>0.4047619047619047</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="F239" s="12" t="n">
-        <v>0.4047619047619047</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="G239" s="12" t="n">
-        <v>0.2537313432835821</v>
+        <v>0.1842105263157894</v>
       </c>
       <c r="H239" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I239" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J239" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="240">
@@ -9971,28 +9971,28 @@
         </is>
       </c>
       <c r="C240" s="11" t="n">
-        <v>0.7</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="D240" s="11" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E240" s="11" t="n">
-        <v>0.7</v>
+        <v>0.6929133858267716</v>
       </c>
       <c r="F240" s="11" t="n">
-        <v>0.7</v>
+        <v>0.6929133858267716</v>
       </c>
       <c r="G240" s="11" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="H240" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I240" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J240" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="241">
@@ -10025,10 +10025,10 @@
         <v>60</v>
       </c>
       <c r="I241" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J241" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="242">
@@ -10043,28 +10043,28 @@
         </is>
       </c>
       <c r="C242" s="11" t="n">
-        <v>0.9056603773584906</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="D242" s="11" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E242" s="11" t="n">
-        <v>0.8495575221238938</v>
+        <v>0.8849557522123894</v>
       </c>
       <c r="F242" s="11" t="n">
-        <v>0.8495575221238938</v>
+        <v>0.8849557522123894</v>
       </c>
       <c r="G242" s="11" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="H242" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I242" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J242" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="243">
@@ -10079,28 +10079,28 @@
         </is>
       </c>
       <c r="C243" s="12" t="n">
-        <v>0.5932203389830508</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="D243" s="12" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="E243" s="12" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6016260162601627</v>
       </c>
       <c r="F243" s="12" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6016260162601627</v>
       </c>
       <c r="G243" s="12" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4302325581395348</v>
       </c>
       <c r="H243" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I243" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J243" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="244">
@@ -10115,28 +10115,28 @@
         </is>
       </c>
       <c r="C244" s="11" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D244" s="11" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E244" s="11" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F244" s="11" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G244" s="11" t="n">
-        <v>0.3823529411764705</v>
+        <v>0.4</v>
       </c>
       <c r="H244" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I244" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J244" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="245">
@@ -10151,28 +10151,28 @@
         </is>
       </c>
       <c r="C245" s="12" t="n">
-        <v>0.72</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="D245" s="12" t="n">
         <v>0.9</v>
       </c>
       <c r="E245" s="12" t="n">
-        <v>0.8</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="F245" s="12" t="n">
-        <v>0.8</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="G245" s="12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.72</v>
       </c>
       <c r="H245" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I245" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J245" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="246">
@@ -10187,28 +10187,28 @@
         </is>
       </c>
       <c r="C246" s="11" t="n">
-        <v>0.7681159420289855</v>
+        <v>0.746268656716418</v>
       </c>
       <c r="D246" s="11" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E246" s="11" t="n">
-        <v>0.8217054263565892</v>
+        <v>0.7874015748031497</v>
       </c>
       <c r="F246" s="11" t="n">
-        <v>0.8217054263565892</v>
+        <v>0.7874015748031497</v>
       </c>
       <c r="G246" s="11" t="n">
-        <v>0.6973684210526315</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="H246" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I246" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J246" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="247">
@@ -10223,28 +10223,28 @@
         </is>
       </c>
       <c r="C247" s="12" t="n">
-        <v>0.65625</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="D247" s="12" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E247" s="12" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="F247" s="12" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="G247" s="12" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="H247" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I247" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J247" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="248">
@@ -10259,28 +10259,28 @@
         </is>
       </c>
       <c r="C248" s="11" t="n">
-        <v>0.96</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="D248" s="11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E248" s="11" t="n">
         <v>0.8</v>
       </c>
-      <c r="E248" s="11" t="n">
-        <v>0.8727272727272727</v>
-      </c>
       <c r="F248" s="11" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.8</v>
       </c>
       <c r="G248" s="11" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H248" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I248" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J248" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="249">
@@ -10295,28 +10295,28 @@
         </is>
       </c>
       <c r="C249" s="12" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="D249" s="12" t="n">
-        <v>0.5</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E249" s="12" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.5528455284552846</v>
       </c>
       <c r="F249" s="12" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.5528455284552846</v>
       </c>
       <c r="G249" s="12" t="n">
-        <v>0.3409090909090909</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="H249" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I249" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J249" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="250">
@@ -10331,28 +10331,28 @@
         </is>
       </c>
       <c r="C250" s="11" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.88</v>
       </c>
       <c r="D250" s="11" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E250" s="11" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="F250" s="11" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="G250" s="11" t="n">
-        <v>0.696969696969697</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H250" s="11" t="n">
         <v>60</v>
       </c>
       <c r="I250" s="11" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J250" s="11" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
     <row r="251">
@@ -10367,28 +10367,28 @@
         </is>
       </c>
       <c r="C251" s="12" t="n">
-        <v>0.475</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="D251" s="12" t="n">
         <v>0.6333333333333333</v>
       </c>
       <c r="E251" s="12" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.5390070921985816</v>
       </c>
       <c r="F251" s="12" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.5390070921985816</v>
       </c>
       <c r="G251" s="12" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.3689320388349514</v>
       </c>
       <c r="H251" s="12" t="n">
         <v>60</v>
       </c>
       <c r="I251" s="12" t="n">
-        <v>0.6846666666666666</v>
+        <v>0.6823333333333333</v>
       </c>
       <c r="J251" s="12" t="n">
-        <v>8.791792154312134</v>
+        <v>8.322904825210571</v>
       </c>
     </row>
   </sheetData>
